--- a/groups/23-24-Univers/tasks_results/24.03.03.xlsx
+++ b/groups/23-24-Univers/tasks_results/24.03.03.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -94,6 +94,9 @@
     <t>2+, 1-</t>
   </si>
   <si>
+    <t>2+</t>
+  </si>
+  <si>
     <t>1+</t>
   </si>
   <si>
@@ -103,7 +106,7 @@
     <t>1+, 6-</t>
   </si>
   <si>
-    <t>1+, 9-</t>
+    <t>2+, 10-</t>
   </si>
   <si>
     <t>1185</t>
@@ -112,10 +115,16 @@
     <t>1+, 3-</t>
   </si>
   <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
     <t>1186</t>
   </si>
   <si>
     <t>1187</t>
+  </si>
+  <si>
+    <t>2+, 2-</t>
   </si>
   <si>
     <t>1188</t>
@@ -627,29 +636,29 @@
         <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>20</v>
@@ -657,38 +666,38 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>25</v>
@@ -696,30 +705,30 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
